--- a/X1_policy/X1_SPO+ISW/X1_SPO+ISW_result.xlsx
+++ b/X1_policy/X1_SPO+ISW/X1_SPO+ISW_result.xlsx
@@ -1209,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
@@ -1244,7 +1244,7 @@
         <v>20.874648</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2">
         <v>400</v>
       </c>
@@ -1252,20 +1252,20 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.04182743837343</v>
+        <v>3.23300757002914</v>
       </c>
       <c r="D2">
-        <v>0.416612573490552</v>
+        <v>0.392092243649323</v>
       </c>
       <c r="E2">
-        <v>2.92634832464308</v>
+        <v>3.12432514496978</v>
       </c>
       <c r="F2">
-        <v>3.15730655210379</v>
+        <v>3.34168999508849</v>
       </c>
       <c r="H2">
         <f>C2/$H$1</f>
-        <v>0.145718741622538</v>
+        <v>0.154877225715573</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1276,23 +1276,23 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3.02647776904432</v>
+        <v>3.27140705727619</v>
       </c>
       <c r="D3">
-        <v>0.38104180414563</v>
+        <v>0.355563810238591</v>
       </c>
       <c r="E3">
-        <v>2.92085836954256</v>
+        <v>3.17284979738141</v>
       </c>
       <c r="F3">
-        <v>3.13209716854608</v>
+        <v>3.36996431717097</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H15" si="0">C3/$H$1</f>
-        <v>0.144983415722474</v>
+        <v>0.156716753129259</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" hidden="1" spans="1:8">
       <c r="A4">
         <v>600</v>
       </c>
@@ -1300,20 +1300,20 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3.05773775235227</v>
+        <v>3.21183489973967</v>
       </c>
       <c r="D4">
-        <v>0.326508574229411</v>
+        <v>0.367006741351984</v>
       </c>
       <c r="E4">
-        <v>2.96723419298662</v>
+        <v>3.11010582116362</v>
       </c>
       <c r="F4">
-        <v>3.14824131171791</v>
+        <v>3.31356397831573</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.146480925204213</v>
+        <v>0.153862948957974</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1324,23 +1324,23 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3.0051840165312</v>
+        <v>3.305224967794</v>
       </c>
       <c r="D5">
-        <v>0.323830745910117</v>
+        <v>0.380739432634395</v>
       </c>
       <c r="E5">
-        <v>2.91542271330642</v>
+        <v>3.19968938139909</v>
       </c>
       <c r="F5">
-        <v>3.09494531975598</v>
+        <v>3.41076055418891</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.143963338521023</v>
+        <v>0.158336800112462</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" hidden="1" spans="1:8">
       <c r="A6">
         <v>800</v>
       </c>
@@ -1348,20 +1348,20 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3.02458198815409</v>
+        <v>3.22755288679217</v>
       </c>
       <c r="D6">
-        <v>0.295434076730792</v>
+        <v>0.321952779332704</v>
       </c>
       <c r="E6">
-        <v>2.94269184004652</v>
+        <v>3.13831212934487</v>
       </c>
       <c r="F6">
-        <v>3.10647213626167</v>
+        <v>3.31679364423947</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.144892598340058</v>
+        <v>0.154615919118357</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1372,23 +1372,23 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3.07129423822018</v>
+        <v>3.2680357890708</v>
       </c>
       <c r="D7">
-        <v>0.349429542981696</v>
+        <v>0.293105197263016</v>
       </c>
       <c r="E7">
-        <v>2.97443731045959</v>
+        <v>3.1867911734172</v>
       </c>
       <c r="F7">
-        <v>3.16815116598078</v>
+        <v>3.34928040472439</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.147130348651636</v>
+        <v>0.156555252527889</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" hidden="1" spans="1:8">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1396,20 +1396,20 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.93157470958009</v>
+        <v>3.22134872112056</v>
       </c>
       <c r="D8">
-        <v>0.204456780813575</v>
+        <v>0.318317599855257</v>
       </c>
       <c r="E8">
-        <v>2.87490218132033</v>
+        <v>3.13311558401652</v>
       </c>
       <c r="F8">
-        <v>2.98824723783985</v>
+        <v>3.3095818582246</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.140437084715397</v>
+        <v>0.154318708565556</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1420,23 +1420,23 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.93955880076647</v>
+        <v>3.26963481290754</v>
       </c>
       <c r="D9">
-        <v>0.277082664033732</v>
+        <v>0.278391547981213</v>
       </c>
       <c r="E9">
-        <v>2.86275540473697</v>
+        <v>3.19246861275775</v>
       </c>
       <c r="F9">
-        <v>3.01636219679596</v>
+        <v>3.34680101305733</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.140819562598922</v>
+        <v>0.156631853763835</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" hidden="1" spans="1:8">
       <c r="A10">
         <v>1200</v>
       </c>
@@ -1444,20 +1444,20 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>2.99681966589292</v>
+        <v>3.26301094680462</v>
       </c>
       <c r="D10">
-        <v>0.278891934179933</v>
+        <v>0.313975730709683</v>
       </c>
       <c r="E10">
-        <v>2.91951476576519</v>
+        <v>3.175981314426</v>
       </c>
       <c r="F10">
-        <v>3.07412456602065</v>
+        <v>3.35004057918325</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.143562644308681</v>
+        <v>0.156314537462122</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1468,23 +1468,23 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>3.01380990332627</v>
+        <v>3.29528019062419</v>
       </c>
       <c r="D11">
-        <v>0.282555052496284</v>
+        <v>0.300270261394137</v>
       </c>
       <c r="E11">
-        <v>2.93548963860424</v>
+        <v>3.21204952052017</v>
       </c>
       <c r="F11">
-        <v>3.09213016804829</v>
+        <v>3.37851086072821</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.144376561622801</v>
+        <v>0.157860395568068</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" hidden="1" spans="1:8">
       <c r="A12">
         <v>1400</v>
       </c>
@@ -1492,20 +1492,20 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>2.97665227453584</v>
+        <v>3.28742148925646</v>
       </c>
       <c r="D12">
-        <v>0.263777424695766</v>
+        <v>0.278185648113677</v>
       </c>
       <c r="E12">
-        <v>2.90353690269113</v>
+        <v>3.21031236163815</v>
       </c>
       <c r="F12">
-        <v>3.04976764638055</v>
+        <v>3.36453061687476</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.142596525437739</v>
+        <v>0.157483924483731</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1516,23 +1516,23 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>2.99138792362098</v>
+        <v>3.27005280490748</v>
       </c>
       <c r="D13">
-        <v>0.307897906237015</v>
+        <v>0.253885339561736</v>
       </c>
       <c r="E13">
-        <v>2.90604297823495</v>
+        <v>3.19967937917029</v>
       </c>
       <c r="F13">
-        <v>3.07673286900701</v>
+        <v>3.34042623064468</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.143302436698381</v>
+        <v>0.156651877670343</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" hidden="1" spans="1:8">
       <c r="A14">
         <v>1600</v>
       </c>
@@ -1540,20 +1540,20 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>2.98600858625737</v>
+        <v>3.28794078876367</v>
       </c>
       <c r="D14">
-        <v>0.255485309039945</v>
+        <v>0.303453083894406</v>
       </c>
       <c r="E14">
-        <v>2.91519167160723</v>
+        <v>3.20382788527334</v>
       </c>
       <c r="F14">
-        <v>3.05682550090752</v>
+        <v>3.37205369225401</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.143044739545183</v>
+        <v>0.157508801526314</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1564,24 +1564,29 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>2.9651328396677</v>
+        <v>3.22144060507038</v>
       </c>
       <c r="D15">
-        <v>0.290056444466526</v>
+        <v>0.219571586388281</v>
       </c>
       <c r="E15">
-        <v>2.88473329517452</v>
+        <v>3.16057846645549</v>
       </c>
       <c r="F15">
-        <v>3.04553238416089</v>
+        <v>3.28230274368527</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.142044686917245</v>
+        <v>0.154323110266117</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H15">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="SPO_Wrong_ISW_Tree"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1595,55 +1600,55 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1">
-        <v>0.145718741622538</v>
+        <v>0.154877225715573</v>
       </c>
       <c r="B1" s="1">
-        <v>0.146480925204213</v>
+        <v>0.153862948957974</v>
       </c>
       <c r="C1" s="1">
-        <v>0.144892598340058</v>
+        <v>0.154615919118357</v>
       </c>
       <c r="D1" s="1">
-        <v>0.140437084715397</v>
+        <v>0.154318708565556</v>
       </c>
       <c r="E1" s="1">
-        <v>0.143562644308681</v>
+        <v>0.156314537462122</v>
       </c>
       <c r="F1" s="1">
-        <v>0.142596525437739</v>
+        <v>0.157483924483731</v>
       </c>
       <c r="G1" s="1">
-        <v>0.143044739545183</v>
+        <v>0.157508801526314</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>0.144983415722474</v>
+        <v>0.156716753129259</v>
       </c>
       <c r="B2" s="1">
-        <v>0.143963338521023</v>
+        <v>0.158336800112462</v>
       </c>
       <c r="C2" s="1">
-        <v>0.147130348651636</v>
+        <v>0.156555252527889</v>
       </c>
       <c r="D2" s="1">
-        <v>0.140819562598922</v>
+        <v>0.156631853763835</v>
       </c>
       <c r="E2" s="1">
-        <v>0.144376561622801</v>
+        <v>0.157860395568068</v>
       </c>
       <c r="F2" s="1">
-        <v>0.143302436698381</v>
+        <v>0.156651877670343</v>
       </c>
       <c r="G2" s="1">
-        <v>0.142044686917245</v>
+        <v>0.154323110266117</v>
       </c>
     </row>
   </sheetData>
